--- a/biology/Zoologie/Animaux_domestiques_des_présidents_de_la_République_française/Animaux_domestiques_des_présidents_de_la_République_française.xlsx
+++ b/biology/Zoologie/Animaux_domestiques_des_présidents_de_la_République_française/Animaux_domestiques_des_présidents_de_la_République_française.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Animaux_domestiques_des_pr%C3%A9sidents_de_la_R%C3%A9publique_fran%C3%A7aise</t>
+          <t>Animaux_domestiques_des_présidents_de_la_République_française</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ceci est une liste des animaux domestiques ayant appartenu aux présidents de la République française et à leurs familles pendant leur(s) mandat(s) au palais de l'Élysée.
-Depuis Louis-Napoléon Bonaparte, premier président de la République à occuper le palais de l'Élysée en 1848, une large majorité des présidents ont eu des animaux avec eux à l'Élysée. Les animaux de compagnie présents au « Château » furent assez vite médiatisés sous la présidence de Valéry Giscard d'Estaing et par conséquent de plus en plus connus des Français, participant ainsi à la « légende » du lieu et de la fonction. Pour l'historien Christian Delporte, cela participe d'une opération de communication afin d'adoucir l'image du chef de l'État[1].
+Depuis Louis-Napoléon Bonaparte, premier président de la République à occuper le palais de l'Élysée en 1848, une large majorité des présidents ont eu des animaux avec eux à l'Élysée. Les animaux de compagnie présents au « Château » furent assez vite médiatisés sous la présidence de Valéry Giscard d'Estaing et par conséquent de plus en plus connus des Français, participant ainsi à la « légende » du lieu et de la fonction. Pour l'historien Christian Delporte, cela participe d'une opération de communication afin d'adoucir l'image du chef de l'État.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Animaux_domestiques_des_pr%C3%A9sidents_de_la_R%C3%A9publique_fran%C3%A7aise</t>
+          <t>Animaux_domestiques_des_présidents_de_la_République_française</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Animaux_domestiques_des_pr%C3%A9sidents_de_la_R%C3%A9publique_fran%C3%A7aise</t>
+          <t>Animaux_domestiques_des_présidents_de_la_République_française</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,10 +552,12 @@
           <t>Animaux du parc</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des canards vivent dans le parc de l'Élysée. François Mitterrand leur portait tant d'affection qu'il a fait promettre à son successeur de veiller à leur bien-être[17]. Les services de l'Élysée ont même démenti officiellement la rumeur selon laquelle le chien de Claude Chirac les avait mangés[18].
-Ils sont mis à l'abri lors de la garden-party de l'Élysée[19].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des canards vivent dans le parc de l'Élysée. François Mitterrand leur portait tant d'affection qu'il a fait promettre à son successeur de veiller à leur bien-être. Les services de l'Élysée ont même démenti officiellement la rumeur selon laquelle le chien de Claude Chirac les avait mangés.
+Ils sont mis à l'abri lors de la garden-party de l'Élysée.
 </t>
         </is>
       </c>
